--- a/TXT/Reprise_données_Utilisateurs/reprise_de_données-Connexion.xlsx
+++ b/TXT/Reprise_données_Utilisateurs/reprise_de_données-Connexion.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise données Utilisateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Utilisateurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AAFBF-989B-4BC4-A12F-7C4C327B2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9131A6C-11F7-4E3A-8F83-AC07F1FC2C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Connexion" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -533,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E8A596-2851-450F-91EB-3636A72086D4}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,111 +607,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -721,16 +615,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>